--- a/medicine/Enfance/Martin_Waddell/Martin_Waddell.xlsx
+++ b/medicine/Enfance/Martin_Waddell/Martin_Waddell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Waddell (10 avril 1941 à Belfast) est un auteur britannique de livres pour enfants. Surtout célèbre pour sa série Petit ours.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La série Petit ours avec illustration de Barbara Firth
 Rentrons à la maison, Petit Ours (19)
@@ -519,7 +533,7 @@
 Sleep Tight, Little Bear
 Toi et moi, Petit Ours
 La grotte de Petit Ours
-La série Enquêtes Policières, Publié originellement aux éditions Blackie au milieu des années 1980 sous le nom de Solve-it-Yourselves. Avec illustration de Terry McKenna[1].
+La série Enquêtes Policières, Publié originellement aux éditions Blackie au milieu des années 1980 sous le nom de Solve-it-Yourselves. Avec illustration de Terry McKenna.
 La Bande des quatre et le message du mort (The Mystery Squad and the Dead Man's Message)
 Le Faussaire (The Mystery Squad and the Artful Dodger)
 La disparition de Laloupe (The Mystery Squad and the Whistling Teeth)
@@ -536,7 +550,7 @@
 Couic couic et ratatam (Squeak-a-lot)
 Le concert des hérissons, en collaboration avec Jill Barton.
 Le canard Fermier (Farmer Duck)
-Sous le pseudonyme de Catherine Sefton[2]
+Sous le pseudonyme de Catherine Sefton
 Le battement du tambour
 Le fantôme et moi
 Le retour du fantôme</t>
